--- a/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35.558849469389912</v>
+        <v>35.558849099055202</v>
       </c>
       <c r="C2">
-        <v>26.841328617205477</v>
+        <v>26.841328428826461</v>
       </c>
       <c r="D2">
-        <v>34.503847961862618</v>
+        <v>34.50384764208259</v>
       </c>
       <c r="E2">
-        <v>39.617152357594442</v>
+        <v>39.617152051847171</v>
       </c>
       <c r="F2">
-        <v>25.553951628174129</v>
+        <v>25.553951461483649</v>
       </c>
       <c r="G2">
-        <v>32.049233021940296</v>
+        <v>32.049232904625057</v>
       </c>
       <c r="H2">
-        <v>37.867738982396205</v>
+        <v>37.867738723276169</v>
       </c>
       <c r="I2">
-        <v>36.047145431736865</v>
+        <v>36.047145270354257</v>
       </c>
       <c r="J2">
-        <v>39.892039192695492</v>
+        <v>39.892038899271412</v>
       </c>
       <c r="K2">
-        <v>39.685070356087991</v>
+        <v>39.685070067883764</v>
       </c>
       <c r="L2">
-        <v>27.900789908643098</v>
+        <v>27.900789640418836</v>
       </c>
       <c r="M2">
-        <v>34.919257162505318</v>
+        <v>34.919257063682764</v>
       </c>
       <c r="N2">
-        <v>32.889973593640853</v>
+        <v>32.889973371015522</v>
       </c>
       <c r="O2">
-        <v>18.862151125360494</v>
+        <v>18.862151057215957</v>
       </c>
       <c r="P2">
-        <v>33.493264419068062</v>
+        <v>33.493264184950135</v>
       </c>
       <c r="Q2">
-        <v>25.131086181545655</v>
+        <v>25.131086105312296</v>
       </c>
       <c r="R2">
-        <v>41.056314454892664</v>
+        <v>41.056314370146687</v>
       </c>
       <c r="S2">
-        <v>60.579994047969421</v>
+        <v>60.579993766394686</v>
       </c>
       <c r="T2">
-        <v>38.667300566967867</v>
+        <v>38.667300521577005</v>
       </c>
       <c r="U2">
-        <v>19.702305728633469</v>
+        <v>19.702305642693823</v>
       </c>
       <c r="V2">
-        <v>50.397779658946384</v>
+        <v>50.397779419736565</v>
       </c>
       <c r="W2">
-        <v>36.194705311681616</v>
+        <v>36.19470498816473</v>
       </c>
       <c r="X2">
-        <v>21.787806348359268</v>
+        <v>21.787806146104451</v>
       </c>
       <c r="Y2">
-        <v>27.443006789595049</v>
+        <v>27.443006716779891</v>
       </c>
       <c r="Z2">
-        <v>12.371539798460979</v>
+        <v>12.371539784365112</v>
       </c>
       <c r="AA2">
-        <v>53.608575712415963</v>
+        <v>53.608575201554373</v>
       </c>
       <c r="AB2">
-        <v>23.305395899507172</v>
+        <v>23.305395642513492</v>
       </c>
       <c r="AC2">
-        <v>27.800472985106051</v>
+        <v>27.800472711712562</v>
       </c>
       <c r="AD2">
-        <v>23.198259246031824</v>
+        <v>23.198259006780294</v>
       </c>
       <c r="AE2">
-        <v>27.795032017177636</v>
+        <v>27.795031749451034</v>
       </c>
       <c r="AF2">
-        <v>32.435158392553781</v>
+        <v>32.435158229711199</v>
       </c>
       <c r="AG2">
-        <v>30.881126426152075</v>
+        <v>30.88112602497679</v>
       </c>
       <c r="AH2">
-        <v>29.809949920016781</v>
+        <v>29.809949804913433</v>
       </c>
       <c r="AI2">
-        <v>37.713032714079176</v>
+        <v>37.713032455277904</v>
       </c>
       <c r="AJ2">
-        <v>58.754175342122323</v>
+        <v>58.754174932837586</v>
       </c>
       <c r="AK2">
-        <v>26.08797486026652</v>
+        <v>26.087974607884856</v>
       </c>
       <c r="AL2">
-        <v>40.882575672244364</v>
+        <v>40.88257549708311</v>
       </c>
       <c r="AM2">
-        <v>42.100028183278539</v>
+        <v>42.100027972950457</v>
       </c>
       <c r="AN2">
-        <v>18.003587526906561</v>
+        <v>18.003587486950995</v>
       </c>
       <c r="AO2">
-        <v>34.013894465573848</v>
+        <v>34.01389430203475</v>
       </c>
       <c r="AP2">
-        <v>24.225986990945835</v>
+        <v>24.225986929822209</v>
       </c>
       <c r="AQ2">
-        <v>35.656118908887983</v>
+        <v>35.656118806340594</v>
       </c>
       <c r="AR2">
-        <v>39.027269760963328</v>
+        <v>39.027269531084599</v>
       </c>
       <c r="AS2">
-        <v>53.904500482101469</v>
+        <v>53.904500076357934</v>
       </c>
       <c r="AT2">
-        <v>14.797371573059328</v>
+        <v>14.797371541074037</v>
       </c>
       <c r="AU2">
-        <v>48.895459084546864</v>
+        <v>48.89545884901662</v>
       </c>
       <c r="AV2">
-        <v>30.429828714893912</v>
+        <v>30.429828409507305</v>
       </c>
       <c r="AW2">
-        <v>15.431757321686129</v>
+        <v>15.431757237562596</v>
       </c>
       <c r="AX2">
-        <v>27.674291605541789</v>
+        <v>27.674291406500053</v>
       </c>
       <c r="AY2">
-        <v>16.832267638994843</v>
+        <v>16.832267558578401</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>41.147288325621474</v>
+        <v>41.147287888204801</v>
       </c>
       <c r="C3">
-        <v>29.092395774276621</v>
+        <v>29.092395507684099</v>
       </c>
       <c r="D3">
-        <v>18.244085348707348</v>
+        <v>18.244085261924983</v>
       </c>
       <c r="E3">
-        <v>57.635655947877325</v>
+        <v>57.635655569794714</v>
       </c>
       <c r="F3">
-        <v>16.678666090245414</v>
+        <v>16.678666017812521</v>
       </c>
       <c r="G3">
-        <v>40.820622069349767</v>
+        <v>40.820621872600221</v>
       </c>
       <c r="H3">
-        <v>38.938621658347451</v>
+        <v>38.938621405401072</v>
       </c>
       <c r="I3">
-        <v>31.168239365999433</v>
+        <v>31.168239315770364</v>
       </c>
       <c r="J3">
-        <v>34.799170162180488</v>
+        <v>34.799169860332221</v>
       </c>
       <c r="K3">
-        <v>36.230557001925135</v>
+        <v>36.230556879860266</v>
       </c>
       <c r="L3">
-        <v>32.252419137021654</v>
+        <v>32.252418982070267</v>
       </c>
       <c r="M3">
-        <v>44.554819354411663</v>
+        <v>44.557148921698548</v>
       </c>
       <c r="N3">
-        <v>36.154559121959558</v>
+        <v>36.154558992557725</v>
       </c>
       <c r="O3">
-        <v>19.004546514204851</v>
+        <v>19.004546472716623</v>
       </c>
       <c r="P3">
-        <v>45.471994846664025</v>
+        <v>45.47199451092861</v>
       </c>
       <c r="Q3">
-        <v>28.597520605203826</v>
+        <v>28.59752050341049</v>
       </c>
       <c r="R3">
-        <v>28.454965443891563</v>
+        <v>28.454965290539317</v>
       </c>
       <c r="S3">
-        <v>38.344151546456459</v>
+        <v>38.344151413502715</v>
       </c>
       <c r="T3">
-        <v>38.419927242236959</v>
+        <v>38.419927157806519</v>
       </c>
       <c r="U3">
-        <v>22.602488953653971</v>
+        <v>22.602488894568047</v>
       </c>
       <c r="V3">
-        <v>36.549471448290788</v>
+        <v>36.549471330121506</v>
       </c>
       <c r="W3">
-        <v>22.055494481770697</v>
+        <v>22.055494365614386</v>
       </c>
       <c r="X3">
-        <v>19.392954217231139</v>
+        <v>19.392954134326004</v>
       </c>
       <c r="Y3">
-        <v>23.995996039136248</v>
+        <v>23.995995977443012</v>
       </c>
       <c r="Z3">
-        <v>15.757553622699957</v>
+        <v>15.75755360220143</v>
       </c>
       <c r="AA3">
-        <v>41.333471272820915</v>
+        <v>41.333470764657115</v>
       </c>
       <c r="AB3">
-        <v>30.059404455192588</v>
+        <v>30.0594040795838</v>
       </c>
       <c r="AC3">
-        <v>26.007764796604107</v>
+        <v>26.007764568640383</v>
       </c>
       <c r="AD3">
-        <v>41.375733793010284</v>
+        <v>41.375733417600337</v>
       </c>
       <c r="AE3">
-        <v>23.585115256733129</v>
+        <v>23.585114994908391</v>
       </c>
       <c r="AF3">
-        <v>35.688487148511925</v>
+        <v>35.688486820991166</v>
       </c>
       <c r="AG3">
-        <v>38.580334169519588</v>
+        <v>38.580333722285644</v>
       </c>
       <c r="AH3">
-        <v>40.12794818621753</v>
+        <v>40.127947982142132</v>
       </c>
       <c r="AI3">
-        <v>37.07265931393713</v>
+        <v>37.072658965530124</v>
       </c>
       <c r="AJ3">
-        <v>65.079514364375441</v>
+        <v>65.07951392020874</v>
       </c>
       <c r="AK3">
-        <v>37.149285123705027</v>
+        <v>37.149284704454381</v>
       </c>
       <c r="AL3">
-        <v>37.417627210053503</v>
+        <v>37.417626946208742</v>
       </c>
       <c r="AM3">
-        <v>51.34912215145895</v>
+        <v>51.349121783057143</v>
       </c>
       <c r="AN3">
-        <v>23.028853027006189</v>
+        <v>23.028852884423216</v>
       </c>
       <c r="AO3">
-        <v>52.075182265985319</v>
+        <v>52.075181769284612</v>
       </c>
       <c r="AP3">
-        <v>26.279438364538287</v>
+        <v>26.279438286870878</v>
       </c>
       <c r="AQ3">
-        <v>23.813052147721361</v>
+        <v>23.81305207131</v>
       </c>
       <c r="AR3">
-        <v>34.563575785114594</v>
+        <v>34.563575690165898</v>
       </c>
       <c r="AS3">
-        <v>43.883846043812376</v>
+        <v>43.883845695452024</v>
       </c>
       <c r="AT3">
-        <v>16.009246824821002</v>
+        <v>16.009246769317127</v>
       </c>
       <c r="AU3">
-        <v>59.968758370831274</v>
+        <v>59.968757953541662</v>
       </c>
       <c r="AV3">
-        <v>26.89722316458921</v>
+        <v>26.897222861014686</v>
       </c>
       <c r="AW3">
-        <v>25.51112381412068</v>
+        <v>25.511123564855872</v>
       </c>
       <c r="AX3">
-        <v>33.936998290268761</v>
+        <v>33.936998123200659</v>
       </c>
       <c r="AY3">
-        <v>23.634337559653201</v>
+        <v>23.63433742415781</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>35.558849099055202</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>26.841328428826461</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>34.50384764208259</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39.617152051847171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>25.553951461483649</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>32.049232904625057</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>37.867738723276169</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>36.047145270354257</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>39.892038899271412</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>39.685070067883764</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>27.900789640418836</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>34.919257063682764</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>32.889973371015522</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.862151057215957</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>33.493264184950135</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>25.131086105312296</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>41.056314370146687</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>60.579993766394686</v>
@@ -588,55 +477,55 @@
         <v>12.371539784365112</v>
       </c>
       <c r="AA2">
-        <v>53.608575201554373</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>23.305395642513492</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>27.800472711712562</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>23.198259006780294</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>27.795031749451034</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>32.435158229711199</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>30.88112602497679</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>29.809949804913433</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>37.713032455277904</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>58.754174932837586</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>26.087974607884856</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>40.88257549708311</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>42.100027972950457</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>18.003587486950995</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>34.01389430203475</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>24.225986929822209</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>35.656118806340594</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>39.027269531084599</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>41.147287888204801</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>29.092395507684099</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>18.244085261924983</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>57.635655569794714</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.678666017812521</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>40.820621872600221</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>38.938621405401072</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>31.168239315770364</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>34.799169860332221</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>36.230556879860266</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.252418982070267</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>44.557148921698548</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>36.154558992557725</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>19.004546472716623</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>45.47199451092861</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>28.59752050341049</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>28.454965290539317</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>38.344151413502715</v>
@@ -743,55 +629,55 @@
         <v>15.75755360220143</v>
       </c>
       <c r="AA3">
-        <v>41.333470764657115</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>30.0594040795838</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>26.007764568640383</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>41.375733417600337</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>23.585114994908391</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>35.688486820991166</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>38.580333722285644</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>40.127947982142132</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>37.072658965530124</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>65.07951392020874</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>37.149284704454381</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>37.417626946208742</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>51.349121783057143</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>23.028852884423216</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>52.075181769284612</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>26.279438286870878</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.81305207131</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>34.563575690165898</v>

--- a/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38.28710127011405</v>
+        <v>19.784121002394567</v>
       </c>
       <c r="C2">
-        <v>28.40121725069065</v>
+        <v>42.012862100795893</v>
       </c>
       <c r="D2">
-        <v>37.100861428776383</v>
+        <v>18.762756017546945</v>
       </c>
       <c r="E2">
-        <v>42.831634364186094</v>
+        <v>37.510580235727396</v>
       </c>
       <c r="F2">
         <v>26.514116680382983</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>44.231361700751677</v>
+        <v>19.421284614683866</v>
       </c>
       <c r="C3">
-        <v>31.313104030637007</v>
+        <v>30.004742429034</v>
       </c>
       <c r="D3">
-        <v>18.798850253662096</v>
+        <v>24.705470356675846</v>
       </c>
       <c r="E3">
-        <v>60.433075733775532</v>
+        <v>23.702137112784595</v>
       </c>
       <c r="F3">
         <v>17.57979385454086</v>

--- a/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38.28710127011405</v>
+        <v>34.584652283769003</v>
       </c>
       <c r="C2">
-        <v>28.40121725069065</v>
+        <v>19.784121002394567</v>
       </c>
       <c r="D2">
-        <v>37.100861428776383</v>
+        <v>44.367993887109812</v>
       </c>
       <c r="E2">
-        <v>42.831634364186094</v>
+        <v>18.762756017546945</v>
       </c>
       <c r="F2">
         <v>26.514116680382983</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>44.231361700751677</v>
+        <v>37.532249289626257</v>
       </c>
       <c r="C3">
-        <v>31.313104030637007</v>
+        <v>19.421284614683866</v>
       </c>
       <c r="D3">
-        <v>18.798850253662096</v>
+        <v>54.57503551642754</v>
       </c>
       <c r="E3">
-        <v>60.433075733775532</v>
+        <v>24.705470356675846</v>
       </c>
       <c r="F3">
         <v>17.57979385454086</v>

--- a/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 67perc ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>38.287100895577872</v>
+      </c>
+      <c r="C2">
+        <v>28.401217051855003</v>
+      </c>
+      <c r="D2">
+        <v>37.100861108836284</v>
+      </c>
+      <c r="E2">
+        <v>42.831634061119807</v>
+      </c>
+      <c r="F2">
+        <v>26.51411650732609</v>
+      </c>
+      <c r="G2">
+        <v>33.385166696824143</v>
+      </c>
+      <c r="H2">
+        <v>39.84611906170521</v>
+      </c>
+      <c r="I2">
+        <v>37.663188761886914</v>
+      </c>
+      <c r="J2">
+        <v>42.499728592941857</v>
+      </c>
+      <c r="K2">
+        <v>42.045113008426817</v>
+      </c>
+      <c r="L2">
+        <v>29.917604263548398</v>
+      </c>
+      <c r="M2">
+        <v>35.684554528779792</v>
+      </c>
+      <c r="N2">
         <v>34.584652283769003</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>19.784121002394567</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>34.630746783355654</v>
+      </c>
+      <c r="Q2">
+        <v>26.084510591972293</v>
+      </c>
+      <c r="R2">
+        <v>42.012862100795893</v>
+      </c>
+      <c r="S2">
+        <v>62.52008377216444</v>
+      </c>
+      <c r="T2">
+        <v>39.509979676068269</v>
+      </c>
+      <c r="U2">
+        <v>20.225283889805855</v>
+      </c>
+      <c r="V2">
+        <v>52.811917756083744</v>
+      </c>
+      <c r="W2">
+        <v>38.846639138933917</v>
+      </c>
+      <c r="X2">
+        <v>22.932355162459114</v>
+      </c>
+      <c r="Y2">
+        <v>28.2435934869976</v>
+      </c>
+      <c r="Z2">
+        <v>12.554366325472165</v>
+      </c>
+      <c r="AA2">
+        <v>58.224719756730856</v>
+      </c>
+      <c r="AB2">
+        <v>25.081641712534022</v>
+      </c>
+      <c r="AC2">
+        <v>29.849108762914948</v>
+      </c>
+      <c r="AD2">
+        <v>25.081953044989195</v>
+      </c>
+      <c r="AE2">
+        <v>29.84490532352903</v>
+      </c>
+      <c r="AF2">
+        <v>33.689259552401872</v>
+      </c>
+      <c r="AG2">
+        <v>33.178832076106893</v>
+      </c>
+      <c r="AH2">
+        <v>31.004232515063993</v>
+      </c>
+      <c r="AI2">
+        <v>40.409881549571878</v>
+      </c>
+      <c r="AJ2">
+        <v>62.987417604502774</v>
+      </c>
+      <c r="AK2">
+        <v>28.064872830279452</v>
+      </c>
+      <c r="AL2">
+        <v>42.955110645427055</v>
+      </c>
+      <c r="AM2">
         <v>44.367993887109812</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>18.762756017546945</v>
       </c>
-      <c r="F2">
-        <v>26.514116680382983</v>
-      </c>
-      <c r="G2">
-        <v>33.385166819437991</v>
-      </c>
-      <c r="H2">
-        <v>39.846119334170794</v>
-      </c>
-      <c r="I2">
-        <v>37.663188930193265</v>
-      </c>
-      <c r="J2">
-        <v>42.499728905048421</v>
-      </c>
-      <c r="K2">
-        <v>42.04511331370238</v>
-      </c>
-      <c r="L2">
-        <v>29.91760453274685</v>
-      </c>
-      <c r="M2">
-        <v>35.684554629284584</v>
-      </c>
-      <c r="N2">
-        <v>34.584652518114268</v>
-      </c>
-      <c r="O2">
-        <v>19.784121073459914</v>
-      </c>
-      <c r="P2">
-        <v>34.630747025609452</v>
-      </c>
-      <c r="Q2">
-        <v>26.084510671062493</v>
-      </c>
-      <c r="R2">
-        <v>42.012862187351367</v>
-      </c>
-      <c r="S2">
-        <v>62.520084063643026</v>
-      </c>
-      <c r="T2">
-        <v>39.509979721576094</v>
-      </c>
-      <c r="U2">
-        <v>20.22528397786613</v>
-      </c>
-      <c r="V2">
-        <v>52.811918006933816</v>
-      </c>
-      <c r="W2">
-        <v>38.846639461783894</v>
-      </c>
-      <c r="X2">
-        <v>22.932355375319663</v>
-      </c>
-      <c r="Y2">
-        <v>28.243593561507293</v>
-      </c>
-      <c r="Z2">
-        <v>12.554366339795015</v>
-      </c>
-      <c r="AA2">
-        <v>58.224720276384538</v>
-      </c>
-      <c r="AB2">
-        <v>25.081641973517151</v>
-      </c>
-      <c r="AC2">
-        <v>29.849109037203799</v>
-      </c>
-      <c r="AD2">
-        <v>25.081953288052432</v>
-      </c>
-      <c r="AE2">
-        <v>29.84490559269673</v>
-      </c>
-      <c r="AF2">
-        <v>33.689259721688728</v>
-      </c>
-      <c r="AG2">
-        <v>33.178832485868618</v>
-      </c>
-      <c r="AH2">
-        <v>31.00423263351276</v>
-      </c>
-      <c r="AI2">
-        <v>40.409881807819225</v>
-      </c>
-      <c r="AJ2">
-        <v>62.987418002805583</v>
-      </c>
-      <c r="AK2">
-        <v>28.064873083974891</v>
-      </c>
-      <c r="AL2">
-        <v>42.955110829709184</v>
-      </c>
-      <c r="AM2">
-        <v>44.367994108876509</v>
-      </c>
-      <c r="AN2">
-        <v>18.762756059171011</v>
-      </c>
       <c r="AO2">
-        <v>35.645549718622625</v>
+        <v>35.645549547401934</v>
       </c>
       <c r="AP2">
-        <v>23.934974268089992</v>
+        <v>23.934974204735713</v>
       </c>
       <c r="AQ2">
-        <v>37.510580343444985</v>
+        <v>37.510580235727396</v>
       </c>
       <c r="AR2">
-        <v>40.331732857885889</v>
+        <v>40.331732620310902</v>
       </c>
       <c r="AS2">
-        <v>57.931293535227589</v>
+        <v>57.931293135024056</v>
       </c>
       <c r="AT2">
-        <v>15.231445510031818</v>
+        <v>15.231445476971905</v>
       </c>
       <c r="AU2">
-        <v>51.111737284459629</v>
+        <v>51.111737038469421</v>
       </c>
       <c r="AV2">
-        <v>32.875361708702407</v>
+        <v>32.87536139925831</v>
       </c>
       <c r="AW2">
-        <v>16.185298701842523</v>
+        <v>16.18529861361208</v>
       </c>
       <c r="AX2">
-        <v>29.656455633180485</v>
+        <v>29.656455436384732</v>
       </c>
       <c r="AY2">
-        <v>17.538723154919541</v>
+        <v>17.538723071050878</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>44.231361257957644</v>
+      </c>
+      <c r="C3">
+        <v>31.313103763550501</v>
+      </c>
+      <c r="D3">
+        <v>18.798850164290638</v>
+      </c>
+      <c r="E3">
+        <v>60.433075341533254</v>
+      </c>
+      <c r="F3">
+        <v>17.579793778235597</v>
+      </c>
+      <c r="G3">
+        <v>42.93021466044393</v>
+      </c>
+      <c r="H3">
+        <v>40.782474989511762</v>
+      </c>
+      <c r="I3">
+        <v>31.889045721721999</v>
+      </c>
+      <c r="J3">
+        <v>36.962079268978755</v>
+      </c>
+      <c r="K3">
+        <v>37.49183201486651</v>
+      </c>
+      <c r="L3">
+        <v>33.726283788452342</v>
+      </c>
+      <c r="M3">
+        <v>46.424970456344603</v>
+      </c>
+      <c r="N3">
         <v>37.532249289626257</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>19.421284614683866</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>47.344142993011211</v>
+      </c>
+      <c r="Q3">
+        <v>29.641208450550966</v>
+      </c>
+      <c r="R3">
+        <v>30.004742429034</v>
+      </c>
+      <c r="S3">
+        <v>39.209532324673205</v>
+      </c>
+      <c r="T3">
+        <v>39.473588580149986</v>
+      </c>
+      <c r="U3">
+        <v>23.024884748409335</v>
+      </c>
+      <c r="V3">
+        <v>37.168865936295099</v>
+      </c>
+      <c r="W3">
+        <v>23.061850806025763</v>
+      </c>
+      <c r="X3">
+        <v>19.941498697112433</v>
+      </c>
+      <c r="Y3">
+        <v>24.579738023325557</v>
+      </c>
+      <c r="Z3">
+        <v>16.013595068041553</v>
+      </c>
+      <c r="AA3">
+        <v>44.888916280024773</v>
+      </c>
+      <c r="AB3">
+        <v>32.500023556489232</v>
+      </c>
+      <c r="AC3">
+        <v>27.994799481416546</v>
+      </c>
+      <c r="AD3">
+        <v>44.694300867403747</v>
+      </c>
+      <c r="AE3">
+        <v>25.407500787258368</v>
+      </c>
+      <c r="AF3">
+        <v>38.099463060801192</v>
+      </c>
+      <c r="AG3">
+        <v>41.567761975357399</v>
+      </c>
+      <c r="AH3">
+        <v>37.539208623472753</v>
+      </c>
+      <c r="AI3">
+        <v>40.102744632019252</v>
+      </c>
+      <c r="AJ3">
+        <v>70.190537633600016</v>
+      </c>
+      <c r="AK3">
+        <v>40.31605271202644</v>
+      </c>
+      <c r="AL3">
+        <v>39.36307726343869</v>
+      </c>
+      <c r="AM3">
         <v>54.57503551642754</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>24.705470356675846</v>
       </c>
-      <c r="F3">
-        <v>17.57979385454086</v>
-      </c>
-      <c r="G3">
-        <v>42.930214865665334</v>
-      </c>
-      <c r="H3">
-        <v>40.782475254340532</v>
-      </c>
-      <c r="I3">
-        <v>31.889045772918902</v>
-      </c>
-      <c r="J3">
-        <v>36.962079588992488</v>
-      </c>
-      <c r="K3">
-        <v>37.491832142741195</v>
-      </c>
-      <c r="L3">
-        <v>33.726283950575912</v>
-      </c>
-      <c r="M3">
-        <v>46.422547725990597</v>
-      </c>
-      <c r="N3">
-        <v>37.532249425144386</v>
-      </c>
-      <c r="O3">
-        <v>19.421284657110657</v>
-      </c>
-      <c r="P3">
-        <v>47.344143343205836</v>
-      </c>
-      <c r="Q3">
-        <v>29.641208555787799</v>
-      </c>
-      <c r="R3">
-        <v>30.004742590590357</v>
-      </c>
-      <c r="S3">
-        <v>39.209532460922659</v>
-      </c>
-      <c r="T3">
-        <v>39.473588666758282</v>
-      </c>
-      <c r="U3">
-        <v>23.024884808646448</v>
-      </c>
-      <c r="V3">
-        <v>37.16886605645346</v>
-      </c>
-      <c r="W3">
-        <v>23.061850926804677</v>
-      </c>
-      <c r="X3">
-        <v>19.941498782461263</v>
-      </c>
-      <c r="Y3">
-        <v>24.579738086633757</v>
-      </c>
-      <c r="Z3">
-        <v>16.01359508886117</v>
-      </c>
-      <c r="AA3">
-        <v>44.888916802829861</v>
-      </c>
-      <c r="AB3">
-        <v>32.500023941899286</v>
-      </c>
-      <c r="AC3">
-        <v>27.9947997096812</v>
-      </c>
-      <c r="AD3">
-        <v>44.694301245126809</v>
-      </c>
-      <c r="AE3">
-        <v>25.407501053180155</v>
-      </c>
-      <c r="AF3">
-        <v>38.099463411237224</v>
-      </c>
-      <c r="AG3">
-        <v>41.567762431202915</v>
-      </c>
-      <c r="AH3">
-        <v>37.539208850712981</v>
-      </c>
-      <c r="AI3">
-        <v>40.102744983577402</v>
-      </c>
-      <c r="AJ3">
-        <v>70.190538067555678</v>
-      </c>
-      <c r="AK3">
-        <v>40.316053141527952</v>
-      </c>
-      <c r="AL3">
-        <v>39.363077541335855</v>
-      </c>
-      <c r="AM3">
-        <v>54.575035908463292</v>
-      </c>
-      <c r="AN3">
-        <v>24.705470494055891</v>
-      </c>
       <c r="AO3">
-        <v>55.675995524580173</v>
+        <v>55.675994994807716</v>
       </c>
       <c r="AP3">
-        <v>27.351319944156284</v>
+        <v>27.351319863145065</v>
       </c>
       <c r="AQ3">
-        <v>23.702137196012973</v>
+        <v>23.702137112784595</v>
       </c>
       <c r="AR3">
-        <v>35.436494641322696</v>
+        <v>35.436494543728074</v>
       </c>
       <c r="AS3">
-        <v>47.110280100105264</v>
+        <v>47.110279755990312</v>
       </c>
       <c r="AT3">
-        <v>16.651021754192378</v>
+        <v>16.651021696403618</v>
       </c>
       <c r="AU3">
-        <v>64.324359475969104</v>
+        <v>64.32435906755255</v>
       </c>
       <c r="AV3">
-        <v>28.911063935395543</v>
+        <v>28.911063627304785</v>
       </c>
       <c r="AW3">
-        <v>27.464746570411421</v>
+        <v>27.464746318877229</v>
       </c>
       <c r="AX3">
-        <v>36.1010406344868</v>
+        <v>36.101040456410836</v>
       </c>
       <c r="AY3">
-        <v>24.47318751097183</v>
+        <v>24.47318737106816</v>
       </c>
     </row>
   </sheetData>
